--- a/biology/Botanique/Jean-Michel_Onana/Jean-Michel_Onana.xlsx
+++ b/biology/Botanique/Jean-Michel_Onana/Jean-Michel_Onana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Michel Onana, né en 1961[1], est un botaniste camerounais, spécialiste de la flore tropicale d'Afrique centrale et de la conservation des plantes africaines, chercheur, taxonomiste et universitaire, chef de l'Herbier national du Cameroun (HNC).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel Onana, né en 1961, est un botaniste camerounais, spécialiste de la flore tropicale d'Afrique centrale et de la conservation des plantes africaines, chercheur, taxonomiste et universitaire, chef de l'Herbier national du Cameroun (HNC).
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auteur d'une thèse de doctorat intitulée Les Burséracées du Cameroun. Taxonomie, biométrie foliaire et biologie (1999[2]) et d'une habilitation à diriger des recherches (HDR) en botanique-écologie, enseignant à la Faculté des sciences de l'université de Yaoundé I, il est membre de l'Association pour l'étude taxonomique de la flore d'Afrique tropicale (AETFAT) et de la Commission de la sauvegarde des espèces (CCSE) de l'Union internationale pour la conservation de la nature (UICN), également chercheur associé aux jardins botaniques royaux de Kew au Royaume-Uni[3], notamment en collaboration avec Martin Cheek.
-L'informatisation des données des 65 000 spécimens de la collection classée par l'HNC lui a permis d'élaborer la liste taxonomique des 7 850 espèces de plantes vasculaires connues actuellement au Cameroun[4].
-Il a publié entre 1998 et 2019 le nom d'une quinzaine de nouvelles espèces[5]. Plusieurs plantes endémiques du Cameroun lui doivent leur épithète spécifique, telles que Diospyros onanae ou Ledermanniella onanae. 
-En 2013, il est le lauréat du Prix d’excellence du chercheur senior de l'Institut de recherche agricole pour le développement[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auteur d'une thèse de doctorat intitulée Les Burséracées du Cameroun. Taxonomie, biométrie foliaire et biologie (1999) et d'une habilitation à diriger des recherches (HDR) en botanique-écologie, enseignant à la Faculté des sciences de l'université de Yaoundé I, il est membre de l'Association pour l'étude taxonomique de la flore d'Afrique tropicale (AETFAT) et de la Commission de la sauvegarde des espèces (CCSE) de l'Union internationale pour la conservation de la nature (UICN), également chercheur associé aux jardins botaniques royaux de Kew au Royaume-Uni, notamment en collaboration avec Martin Cheek.
+L'informatisation des données des 65 000 spécimens de la collection classée par l'HNC lui a permis d'élaborer la liste taxonomique des 7 850 espèces de plantes vasculaires connues actuellement au Cameroun.
+Il a publié entre 1998 et 2019 le nom d'une quinzaine de nouvelles espèces. Plusieurs plantes endémiques du Cameroun lui doivent leur épithète spécifique, telles que Diospyros onanae ou Ledermanniella onanae. 
+En 2013, il est le lauréat du Prix d’excellence du chercheur senior de l'Institut de recherche agricole pour le développement.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The plants of Mount Oku and the Ijim Ridge, Cameroon : a conservation checklist (en collab.), 2000
   Systématique et conservation des plantes africaines : comptes rendus du 18e congrès de l'AETFAT, Yaoundé, Cameroun  (en collab.), 2010
